--- a/8080_UnitTests_T035-T052.xlsx
+++ b/8080_UnitTests_T035-T052.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0B59DDCE-F7AA-49FA-B15F-0D1C23EBCD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit Tests" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
